--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail15 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P06_trail15 Features.xlsx
@@ -4805,7 +4805,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4816,29 +4816,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="18" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
-    <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
-    <col width="17" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="17" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
     <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="18" bestFit="1" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4859,115 +4857,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4984,72 +4972,66 @@
         <v>3.717490004597937e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.726227096375502</v>
+        <v>2.42367044059272e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.41743404017018</v>
+        <v>4.004081658039806e-07</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.42367044059272e-07</v>
+        <v>-0.1087770472248894</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.004081658039806e-07</v>
+        <v>0.3113831156981952</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1087770472248894</v>
+        <v>0.1085321176610266</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3113831156981952</v>
+        <v>1.926258509001816</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1085321176610266</v>
+        <v>4.30051341665169</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.964119931747766</v>
+        <v>8.524085430665208</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.30051341665169</v>
+        <v>1.015198377910837e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8.524085430665208</v>
+        <v>322405648185.2342</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.015198377910837e-19</v>
+        <v>3.711624111854002e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>322405648185.2342</v>
+        <v>10552.52034831534</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.711624111854002e-10</v>
+        <v>2.385029292039815e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10552.52034831534</v>
+        <v>6.979916370232271</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>2.385029292039815e-06</v>
+        <v>2.061149279068841</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6.979916370232271</v>
+        <v>0.0001161967966827151</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>2.061149279068841</v>
+        <v>8.981703294783136</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0001161967966827151</v>
+        <v>0.9593939331428738</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.981703294783136</v>
+        <v>0.6072562784873233</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9593939331428738</v>
+        <v>759</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6072562784873233</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>759</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>21.7370927302733</v>
       </c>
     </row>
@@ -5064,72 +5046,66 @@
         <v>2.726283884677239e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.693559072624972</v>
+        <v>1.777662594015406e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.21318670960581</v>
+        <v>3.969351110552942e-07</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.777662594015406e-07</v>
+        <v>-0.1087915201023828</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.969351110552942e-07</v>
+        <v>0.3094400181374916</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1087915201023828</v>
+        <v>0.1073257138231488</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3094400181374916</v>
+        <v>1.925034602059021</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1073257138231488</v>
+        <v>4.091790505269333</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.966828181139843</v>
+        <v>8.551477260526253</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.091790505269333</v>
+        <v>1.008705089487271e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>8.551477260526253</v>
+        <v>323194749956.4718</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.008705089487271e-19</v>
+        <v>3.702641560512703e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>323194749956.4718</v>
+        <v>10536.41351847125</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.702641560512703e-10</v>
+        <v>2.417070322252617e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>10536.41351847125</v>
+        <v>7.170506445613226</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.417070322252617e-06</v>
+        <v>2.002210156628781</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>7.170506445613226</v>
+        <v>0.0001242764809138469</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>2.002210156628781</v>
+        <v>9.001302390971</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0001242764809138469</v>
+        <v>0.9594451260237968</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>9.001302390971</v>
+        <v>0.5935127366398038</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9594451260237968</v>
+        <v>767</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.5935127366398038</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>767</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>21.61017758938023</v>
       </c>
     </row>
@@ -5144,72 +5120,66 @@
         <v>2.005287329173132e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.639290995032592</v>
+        <v>1.306111036287872e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>13.87049755424098</v>
+        <v>3.943859176840529e-07</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.306111036287872e-07</v>
+        <v>-0.1086718362149079</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.943859176840529e-07</v>
+        <v>0.3061435090291924</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1086718362149079</v>
+        <v>0.1052744711649145</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3061435090291924</v>
+        <v>1.922872081802689</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1052744711649145</v>
+        <v>3.876276364685495</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.960771070384075</v>
+        <v>8.751251870956533</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.876276364685495</v>
+        <v>1.014097719190644e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>8.751251870956533</v>
+        <v>320042475952.368</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.014097719190644e-19</v>
+        <v>3.73256367174417e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>320042475952.368</v>
+        <v>10387.11761252705</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.73256367174417e-10</v>
+        <v>2.62007998579677e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10387.11761252705</v>
+        <v>7.398911102581677</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.62007998579677e-06</v>
+        <v>1.920201957463444</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>7.398911102581677</v>
+        <v>0.0001434333587535351</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.920201957463444</v>
+        <v>8.972945558220722</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0001434333587535351</v>
+        <v>0.9601318389836044</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.972945558220722</v>
+        <v>0.6244037596061563</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9601318389836044</v>
+        <v>752</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6244037596061563</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>752</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>21.27806472325081</v>
       </c>
     </row>
@@ -5224,72 +5194,66 @@
         <v>1.482238500262333e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.551606271007219</v>
+        <v>9.620522981007631e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>13.30982621564089</v>
+        <v>3.925108203138661e-07</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.620522981007631e-08</v>
+        <v>-0.10829030334568</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.925108203138661e-07</v>
+        <v>0.3006841363012961</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.10829030334568</v>
+        <v>0.1018852571918867</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3006841363012961</v>
+        <v>1.91457041027222</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1018852571918867</v>
+        <v>3.813521237271949</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.95650274898966</v>
+        <v>8.714373604786417</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>3.813521237271949</v>
+        <v>1.022698979536529e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>8.714373604786417</v>
+        <v>317771093176.8965</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.022698979536529e-19</v>
+        <v>3.749902991716888e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>317771093176.8965</v>
+        <v>10327.05758298578</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.749902991716888e-10</v>
+        <v>2.529249956609111e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10327.05758298578</v>
+        <v>7.317370413748828</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.529249956609111e-06</v>
+        <v>1.952057825582417</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.317370413748828</v>
+        <v>0.0001354259314675301</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.952057825582417</v>
+        <v>8.96695929363289</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0001354259314675301</v>
+        <v>0.9598231050512861</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>8.96695929363289</v>
+        <v>0.6242226781260716</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9598231050512861</v>
+        <v>748</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6242226781260716</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>748</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>21.3546267450401</v>
       </c>
     </row>
@@ -5304,72 +5268,66 @@
         <v>1.104512301305635e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.416822806507899</v>
+        <v>7.111166712081079e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>12.44168479259068</v>
+        <v>3.911275144818099e-07</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>7.111166712081079e-08</v>
+        <v>-0.1074167279412296</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.911275144818099e-07</v>
+        <v>0.2918642310451918</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1074167279412296</v>
+        <v>0.09648165568225456</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2918642310451918</v>
+        <v>1.921870819922634</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.09648165568225456</v>
+        <v>4.03111827769149</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.963745387746775</v>
+        <v>8.72083278849836</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>4.03111827769149</v>
+        <v>1.021184593371714e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>8.72083278849836</v>
+        <v>320106443798.9407</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.021184593371714e-19</v>
+        <v>3.741464826071655e-10</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>320106443798.9407</v>
+        <v>10463.88811427978</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.741464826071655e-10</v>
+        <v>2.348666210701174e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10463.88811427978</v>
+        <v>7.454228653775732</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.348666210701174e-06</v>
+        <v>1.974220888893021</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.454228653775732</v>
+        <v>0.0001305048706311199</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.974220888893021</v>
+        <v>8.98549205091955</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0001305048706311199</v>
+        <v>0.9612201719546505</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>8.98549205091955</v>
+        <v>0.6162169776560927</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9612201719546505</v>
+        <v>745</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6162169776560927</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>745</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>21.83586376435751</v>
       </c>
     </row>
@@ -5384,72 +5342,66 @@
         <v>8.335228375895315e-09</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.223571884402752</v>
+        <v>5.284549163327736e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>11.1999256829015</v>
+        <v>3.901026265623406e-07</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.284549163327736e-08</v>
+        <v>-0.1057745771280688</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.901026265623406e-07</v>
+        <v>0.2783251850778173</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.1057745771280688</v>
+        <v>0.08842916728479767</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2783251850778173</v>
+        <v>1.922587986629283</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.08842916728479767</v>
+        <v>4.610390167052128</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.962462731612048</v>
+        <v>8.34967355901925</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>4.610390167052128</v>
+        <v>1.113989711695051e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>8.34967355901925</v>
+        <v>308962368260.7468</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.113989711695051e-19</v>
+        <v>3.896021772608599e-10</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>308962368260.7468</v>
+        <v>10633.89458330461</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.896021772608599e-10</v>
+        <v>2.41040149900364e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>10633.89458330461</v>
+        <v>8.060262615532428</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>2.41040149900364e-06</v>
+        <v>1.882390654081102</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.060262615532428</v>
+        <v>0.000156598563089944</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.882390654081102</v>
+        <v>9.000040106116106</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.000156598563089944</v>
+        <v>0.9620795052495941</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>9.000040106116106</v>
+        <v>0.6177481208347365</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9620795052495941</v>
+        <v>741</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6177481208347365</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>741</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>22.29508170394483</v>
       </c>
     </row>
@@ -5464,72 +5416,66 @@
         <v>6.407680071321226e-09</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.971323183784632</v>
+        <v>3.960151402377007e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>9.609251610561723</v>
+        <v>3.893381866993802e-07</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.960151402377007e-08</v>
+        <v>-0.1031062502904614</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.893381866993802e-07</v>
+        <v>0.2589215784464142</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.1031062502904614</v>
+        <v>0.07747294902896072</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2589215784464142</v>
+        <v>1.92260126736548</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.07747294902896072</v>
+        <v>4.621241576379</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.962954374796011</v>
+        <v>8.242445932052444</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>4.621241576379</v>
+        <v>1.143162472253067e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>8.242445932052444</v>
+        <v>305749616987.3912</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.143162472253067e-19</v>
+        <v>3.931033832925728e-10</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>305749616987.3912</v>
+        <v>10686.60610988463</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.931033832925728e-10</v>
+        <v>2.538492428196559e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10686.60610988463</v>
+        <v>7.643978736712121</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>2.538492428196559e-06</v>
+        <v>1.925443178549417</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.643978736712121</v>
+        <v>0.0001483251557153824</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.925443178549417</v>
+        <v>9.028875289490975</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0001483251557153824</v>
+        <v>0.9621636190751371</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>9.028875289490975</v>
+        <v>0.6192845703171065</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9621636190751371</v>
+        <v>736</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6192845703171065</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>736</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>22.47547429364229</v>
       </c>
     </row>
@@ -5544,72 +5490,66 @@
         <v>5.04843923069316e-09</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.678308203082771</v>
+        <v>3.006292095648411e-08</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>7.841237053276664</v>
+        <v>3.887620696420699e-07</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.006292095648411e-08</v>
+        <v>-0.09933944952915652</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.887620696420699e-07</v>
+        <v>0.2338145521609233</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.09933944952915652</v>
+        <v>0.06437353345821716</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2338145521609233</v>
+        <v>1.927215559283269</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.06437353345821716</v>
+        <v>3.859727548387783</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.966063698345898</v>
+        <v>8.167344160001933</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.859727548387783</v>
+        <v>1.131646319332779e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>8.167344160001933</v>
+        <v>310258922097.9902</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.131646319332779e-19</v>
+        <v>3.873710736677293e-10</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>310258922097.9902</v>
+        <v>10893.29522624825</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.873710736677293e-10</v>
+        <v>2.678155034809375e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10893.29522624825</v>
+        <v>7.656005977939792</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>2.678155034809375e-06</v>
+        <v>1.826004605301971</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.656005977939792</v>
+        <v>0.0001569785242133205</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.826004605301971</v>
+        <v>9.043119131975631</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0001569785242133205</v>
+        <v>0.9624328718773133</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>9.043119131975631</v>
+        <v>0.6152986360202979</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9624328718773133</v>
+        <v>750</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6152986360202979</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>750</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>22.33813652589278</v>
       </c>
     </row>
@@ -5624,72 +5564,66 @@
         <v>4.092879376607955e-09</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.375651072213212</v>
+        <v>2.327905161531293e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>6.145931608387061</v>
+        <v>3.883208409431023e-07</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.327905161531293e-08</v>
+        <v>-0.09487350962129182</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.883208409431023e-07</v>
+        <v>0.2058771686389358</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.09487350962129182</v>
+        <v>0.05126200010554063</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2058771686389358</v>
+        <v>1.932156762448312</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.05126200010554063</v>
+        <v>3.933699332766734</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.96833733921866</v>
+        <v>8.210249941185431</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.933699332766734</v>
+        <v>1.119849528596958e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>8.210249941185431</v>
+        <v>312996482632.7883</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.119849528596958e-19</v>
+        <v>3.855734796509651e-10</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>312996482632.7883</v>
+        <v>10970.80727157892</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.855734796509651e-10</v>
+        <v>2.343663816440253e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>10970.80727157892</v>
+        <v>7.665722940746948</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>2.343663816440253e-06</v>
+        <v>1.820541808954191</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>7.665722940746948</v>
+        <v>0.0001377214391727306</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.820541808954191</v>
+        <v>9.055620414907528</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0001377214391727306</v>
+        <v>0.9622642789419978</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>9.055620414907528</v>
+        <v>0.6198650505043132</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9622642789419978</v>
+        <v>768</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6198650505043132</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>768</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>22.48123045749469</v>
       </c>
     </row>
@@ -5704,72 +5638,66 @@
         <v>3.41382752128693e-09</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.085644708930381</v>
+        <v>1.851080939743331e-08</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>4.662899008914442</v>
+        <v>3.879749070230408e-07</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.851080939743331e-08</v>
+        <v>-0.09043725679501145</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.879749070230408e-07</v>
+        <v>0.1797658328043526</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.09043725679501145</v>
+        <v>0.04040541529203692</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1797658328043526</v>
+        <v>1.931568411030495</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04040541529203692</v>
+        <v>3.594588159855253</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.971813498860296</v>
+        <v>8.427335978131644</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.594588159855253</v>
+        <v>1.062898541478141e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>8.427335978131644</v>
+        <v>325858594830.8668</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.062898541478141e-19</v>
+        <v>3.698091892037414e-10</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>325858594830.8668</v>
+        <v>11286.26314723206</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.698091892037414e-10</v>
+        <v>1.976116755988795e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>11286.26314723206</v>
+        <v>6.826982324252748</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>1.976116755988795e-06</v>
+        <v>2.10986015631395</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>6.826982324252748</v>
+        <v>9.210223253424076e-05</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>2.10986015631395</v>
+        <v>9.079400358570126</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>9.210223253424076e-05</v>
+        <v>0.9605877438202232</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>9.079400358570126</v>
+        <v>0.558664340526328</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9605877438202232</v>
+        <v>763</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.558664340526328</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>763</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>22.76565976650433</v>
       </c>
     </row>
@@ -5784,72 +5712,66 @@
         <v>2.920636050251158e-09</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1.81584806933064</v>
+        <v>1.51009837895878e-08</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>3.391383524027328</v>
+        <v>3.876963025192051e-07</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.51009837895878e-08</v>
+        <v>-0.08622876520797683</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.876963025192051e-07</v>
+        <v>0.1566001941885867</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.08622876520797683</v>
+        <v>0.03189429489690192</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1566001941885867</v>
+        <v>1.930856483709875</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.03189429489690192</v>
+        <v>4.294287130776621</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.969844346479514</v>
+        <v>8.675668624546407</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>4.294287130776621</v>
+        <v>1.002920520787034e-19</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>8.675668624546407</v>
+        <v>332507946871.1802</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.002920520787034e-19</v>
+        <v>3.607592444416361e-10</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>332507946871.1802</v>
+        <v>11088.44319929202</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.607592444416361e-10</v>
+        <v>2.130051521162963e-06</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>11088.44319929202</v>
+        <v>6.750366751253691</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>2.130051521162963e-06</v>
+        <v>2.210166454988145</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>6.750366751253691</v>
+        <v>9.70610189068817e-05</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>2.210166454988145</v>
+        <v>9.063217874771325</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>9.70610189068817e-05</v>
+        <v>0.9618084872390137</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>9.063217874771325</v>
+        <v>0.5691990866125288</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9618084872390137</v>
+        <v>757</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.5691990866125288</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>757</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>22.96455322045149</v>
       </c>
     </row>
@@ -5864,72 +5786,66 @@
         <v>2.555771362711547e-09</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>1.574803416543664</v>
+        <v>1.257183395325775e-08</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>2.331640740669311</v>
+        <v>3.874667058014187e-07</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.257183395325775e-08</v>
+        <v>-0.08202951394125854</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.874667058014187e-07</v>
+        <v>0.1349489743310895</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.08202951394125854</v>
+        <v>0.02489234803609847</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1349489743310895</v>
+        <v>1.92518444549555</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02489234803609847</v>
+        <v>4.618084475444317</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.965207946995364</v>
+        <v>8.706213203941953</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>4.618084475444317</v>
+        <v>9.95895641543249e-20</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>8.706213203941953</v>
+        <v>332952047536.8119</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>9.95895641543249e-20</v>
+        <v>3.604155884965072e-10</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>332952047536.8119</v>
+        <v>11040.20688227962</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.604155884965072e-10</v>
+        <v>2.490157760898435e-06</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>11040.20688227962</v>
+        <v>5.992017276236043</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>2.490157760898435e-06</v>
+        <v>2.294638807552535</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>5.992017276236043</v>
+        <v>8.940729917644762e-05</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>2.294638807552535</v>
+        <v>9.023178176217632</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>8.940729917644762e-05</v>
+        <v>0.9624988557923867</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>9.023178176217632</v>
+        <v>0.5886527337444427</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9624988557923867</v>
+        <v>740</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.5886527337444427</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>740</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>22.89237436858738</v>
       </c>
     </row>
@@ -5944,72 +5860,66 @@
         <v>2.282150012325199e-09</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1.372580331630364</v>
+        <v>1.067513587528083e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.500440081554921</v>
+        <v>3.872737435542233e-07</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.067513587528083e-08</v>
+        <v>-0.07799891264631841</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.872737435542233e-07</v>
+        <v>0.1152498014193409</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.07799891264631841</v>
+        <v>0.01933273019496624</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1152498014193409</v>
+        <v>1.918051620841362</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.01933273019496624</v>
+        <v>4.485519873891144</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.96244920488192</v>
+        <v>8.716241186496779</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>4.485519873891144</v>
+        <v>9.936054159710073e-20</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.716241186496779</v>
+        <v>332776262695.3355</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>9.936054159710073e-20</v>
+        <v>3.603376446885723e-10</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>332776262695.3355</v>
+        <v>11003.19045158402</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.603376446885723e-10</v>
+        <v>2.982845592093037e-06</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>11003.19045158402</v>
+        <v>6.78506023043244</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>2.982845592093037e-06</v>
+        <v>1.994016392225066</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>6.78506023043244</v>
+        <v>0.0001373213887888186</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.994016392225066</v>
+        <v>8.987505414021218</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0001373213887888186</v>
+        <v>0.9639322808823285</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>8.987505414021218</v>
+        <v>0.5764555337889918</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9639322808823285</v>
+        <v>731</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.5764555337889918</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>731</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>22.65179018373261</v>
       </c>
     </row>
@@ -6024,72 +5934,66 @@
         <v>2.072884677902816e-09</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.210700587311707</v>
+        <v>9.245710419163633e-09</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>0.8729236273905143</v>
+        <v>3.871082815338071e-07</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.245710419163633e-09</v>
+        <v>-0.07436951514821519</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.871082815338071e-07</v>
+        <v>0.09828840218071019</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.07436951514821519</v>
+        <v>0.01516768055956317</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.09828840218071019</v>
+        <v>1.906785834968463</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01516768055956317</v>
+        <v>4.103550553704579</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.956404426625526</v>
+        <v>9.053904955229067</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>4.103550553704579</v>
+        <v>1.029969776025741e-19</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>9.053904955229067</v>
+        <v>326940363639.0836</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.029969776025741e-19</v>
+        <v>3.660180452884268e-10</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>326940363639.0836</v>
+        <v>11009.34707770997</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.660180452884268e-10</v>
+        <v>3.036254240583287e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>11009.34707770997</v>
+        <v>7.729477379548339</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>3.036254240583287e-06</v>
+        <v>1.811697087921458</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.729477379548339</v>
+        <v>0.0001814004647810704</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.811697087921458</v>
+        <v>8.985911150613186</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.0001814004647810704</v>
+        <v>0.9631017898182479</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>8.985911150613186</v>
+        <v>0.5790496357248252</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9631017898182479</v>
+        <v>713</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.5790496357248252</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>713</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>22.64109854215547</v>
       </c>
     </row>
@@ -6104,72 +6008,66 @@
         <v>1.909375638276206e-09</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>1.086507546940596</v>
+        <v>8.141018477729235e-09</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.4135767361853291</v>
+        <v>3.86963765074156e-07</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>8.141018477729235e-09</v>
+        <v>-0.07108641747551576</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.86963765074156e-07</v>
+        <v>0.08391643637338297</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.07108641747551576</v>
+        <v>0.01207854745035853</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.08391643637338297</v>
+        <v>1.908920144868369</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01207854745035853</v>
+        <v>4.30441630469627</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.960105574855282</v>
+        <v>9.091321894482656</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>4.30441630469627</v>
+        <v>1.066822067814074e-19</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>9.091321894482656</v>
+        <v>318265578767.3216</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.066822067814074e-19</v>
+        <v>3.766354336087842e-10</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>318265578767.3216</v>
+        <v>10806.15849150745</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.766354336087842e-10</v>
+        <v>2.564298103138007e-06</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>10806.15849150745</v>
+        <v>6.576676306624686</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>2.564298103138007e-06</v>
+        <v>2.068058298754691</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>6.576676306624686</v>
+        <v>0.0001109127428218164</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>2.068058298754691</v>
+        <v>9.024360819258108</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0001109127428218164</v>
+        <v>0.9634476078754899</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>9.024360819258108</v>
+        <v>0.6202156266463816</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9634476078754899</v>
+        <v>706</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.6202156266463816</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>706</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>22.8280892631359</v>
       </c>
     </row>
@@ -6184,72 +6082,66 @@
         <v>1.778412558104414e-09</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.9956252200724702</v>
+        <v>7.265998633155037e-09</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.08742724074659147</v>
+        <v>3.868356620601566e-07</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>7.265998633155037e-09</v>
+        <v>-0.06809701733418783</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.868356620601566e-07</v>
+        <v>0.07233581525231561</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06809701733418783</v>
+        <v>0.009857912739741169</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.07233581525231561</v>
+        <v>1.913044129781768</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.009857912739741169</v>
+        <v>4.424418344572644</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.96099491718781</v>
+        <v>8.979818192852161</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>4.424418344572644</v>
+        <v>1.093480324199642e-19</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>8.979818192852161</v>
+        <v>312999231842.8996</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.093480324199642e-19</v>
+        <v>3.840046631444974e-10</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>312999231842.8996</v>
+        <v>10712.66480642733</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.840046631444974e-10</v>
+        <v>2.462016488638381e-06</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>10712.66480642733</v>
+        <v>5.227260975299677</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>2.462016488638381e-06</v>
+        <v>2.446667544953353</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>5.227260975299677</v>
+        <v>6.727277202197718e-05</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>2.446667544953353</v>
+        <v>9.023985554321177</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>6.727277202197718e-05</v>
+        <v>0.964329466959115</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>9.023985554321177</v>
+        <v>0.6258094125150816</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.964329466959115</v>
+        <v>696</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.6258094125150816</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>696</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>23.04476334951249</v>
       </c>
     </row>
@@ -6626,7 +6518,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.569915529345621</v>
+        <v>1.588646187669147</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.634578631801831</v>
@@ -6715,7 +6607,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.570727498384905</v>
+        <v>1.588537360524355</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.62958274282814</v>
@@ -6804,7 +6696,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.565384509022929</v>
+        <v>1.578058609875465</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.669874608895654</v>
@@ -6893,7 +6785,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.542806433538806</v>
+        <v>1.567471682484501</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.542738555786408</v>
@@ -6982,7 +6874,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.542482156165565</v>
+        <v>1.567461975036056</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.644160066795891</v>
@@ -7071,7 +6963,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.532590064503322</v>
+        <v>1.562686709523866</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.591006286761356</v>
@@ -7160,7 +7052,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.542377121167705</v>
+        <v>1.571176599630219</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.498279447085827</v>
@@ -7249,7 +7141,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.477890031773187</v>
+        <v>1.499281157824739</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.406113727414863</v>
@@ -7338,7 +7230,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.408662471169449</v>
+        <v>1.411320165876314</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.38254067892518</v>
@@ -7427,7 +7319,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.410414592120489</v>
+        <v>1.408291034002474</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.017396942188133</v>
@@ -7516,7 +7408,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.405804700419818</v>
+        <v>1.395758274046106</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.057764390768654</v>
@@ -7605,7 +7497,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.418528004489671</v>
+        <v>1.413541575935479</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.114493916865724</v>
@@ -7694,7 +7586,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.43487978955122</v>
+        <v>1.43211671762319</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.164345529890806</v>
@@ -7783,7 +7675,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.430433684474544</v>
+        <v>1.420638190930882</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.254905421445528</v>
@@ -7872,7 +7764,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.410097546206614</v>
+        <v>1.395870346314592</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.130217610069837</v>
@@ -7961,7 +7853,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.422317835789338</v>
+        <v>1.403423358586644</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.232651497031187</v>
@@ -8050,7 +7942,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.393893164547985</v>
+        <v>1.373917668330071</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.286409209960278</v>
@@ -8139,7 +8031,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.416800430086584</v>
+        <v>1.391543850352763</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.116702205948923</v>
@@ -8228,7 +8120,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.39980264976923</v>
+        <v>1.376400960971748</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.322921824658045</v>
@@ -8317,7 +8209,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.409851825926064</v>
+        <v>1.383612911660407</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.15035492315264</v>
@@ -8406,7 +8298,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.449469333810901</v>
+        <v>1.418726584306501</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.189204364657047</v>
@@ -8495,7 +8387,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.453143377710674</v>
+        <v>1.423480578692533</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.228454749131108</v>
@@ -8584,7 +8476,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.416167704709558</v>
+        <v>1.384921797578331</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.212067907635143</v>
@@ -8673,7 +8565,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.440374711378502</v>
+        <v>1.407203708683302</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.112637614013037</v>
@@ -8762,7 +8654,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.452059796382101</v>
+        <v>1.417445515806997</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.114676490679454</v>
@@ -8851,7 +8743,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.436367147438581</v>
+        <v>1.400960789463376</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.170244495142704</v>
@@ -8940,7 +8832,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.432628194593226</v>
+        <v>1.39833968857906</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.075317058021318</v>
@@ -9029,7 +8921,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.404720715714372</v>
+        <v>1.375645521291837</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.174656043368522</v>
@@ -9118,7 +9010,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.393268935583771</v>
+        <v>1.367614176086344</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.166282665446637</v>
@@ -9207,7 +9099,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.41400610298877</v>
+        <v>1.384244410882065</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.129495457780038</v>
@@ -9296,7 +9188,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.393778397942718</v>
+        <v>1.370938017730772</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.142300067730867</v>
@@ -9385,7 +9277,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.420197365837965</v>
+        <v>1.396160899715301</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.147909565212382</v>
@@ -9474,7 +9366,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.403891348223747</v>
+        <v>1.380462757722912</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.185334545964477</v>
@@ -9563,7 +9455,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.421868163477267</v>
+        <v>1.388209888641614</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.230740485269988</v>
@@ -9652,7 +9544,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.398353008103911</v>
+        <v>1.373721004616787</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.189506182933024</v>
@@ -9741,7 +9633,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.395275389421616</v>
+        <v>1.370011055073698</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.200189710251224</v>
@@ -9830,7 +9722,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.388131069472476</v>
+        <v>1.362115952789501</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.232823689089501</v>
@@ -9919,7 +9811,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.427704056785162</v>
+        <v>1.405279990318175</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.204806250090625</v>
@@ -10008,7 +9900,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.393375677112026</v>
+        <v>1.367101511049982</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.171452226648237</v>
@@ -10097,7 +9989,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.401566969177723</v>
+        <v>1.373219753777938</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.213487851346088</v>
@@ -10186,7 +10078,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.427773340033704</v>
+        <v>1.399261368541254</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.168186965423176</v>
@@ -10275,7 +10167,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.432904944041445</v>
+        <v>1.405009196371846</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.257377770540361</v>
@@ -10364,7 +10256,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.46826205110455</v>
+        <v>1.434629027664439</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.304555816369379</v>
@@ -10453,7 +10345,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.440590633289612</v>
+        <v>1.41179182362835</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.186637475729226</v>
@@ -10542,7 +10434,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.465458158603612</v>
+        <v>1.435823899078339</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.465097323104814</v>
@@ -10631,7 +10523,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.444092024143341</v>
+        <v>1.415532564539074</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.20037523305459</v>
@@ -10720,7 +10612,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.422958266142111</v>
+        <v>1.399731978977776</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.227165607103648</v>
@@ -10809,7 +10701,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.441224888411919</v>
+        <v>1.413950538370661</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.223871337764862</v>
@@ -10898,7 +10790,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.439057678271424</v>
+        <v>1.412830728843913</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.392228871230522</v>
@@ -10987,7 +10879,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.445228021700034</v>
+        <v>1.418069547851937</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.260172614129828</v>
@@ -11076,7 +10968,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.446977903421774</v>
+        <v>1.422453220434415</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.236707066446499</v>
@@ -11165,7 +11057,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.433057652336851</v>
+        <v>1.413985741733861</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.174464936844947</v>
@@ -11254,7 +11146,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.42924259619505</v>
+        <v>1.408028085552083</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.161180322119254</v>
@@ -11343,7 +11235,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.468512287152656</v>
+        <v>1.451207368752474</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.208304754989075</v>
@@ -11432,7 +11324,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.464918442279891</v>
+        <v>1.450070048628156</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.149074708249033</v>
@@ -11521,7 +11413,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.470998241595401</v>
+        <v>1.455402994561992</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.185330123250782</v>
@@ -11610,7 +11502,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.458773044314583</v>
+        <v>1.445618867999103</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.165259520113094</v>
@@ -11699,7 +11591,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.451360575556892</v>
+        <v>1.435176603268431</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.238867744889165</v>
@@ -11788,7 +11680,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.461940245692632</v>
+        <v>1.44103187960823</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.151718080200508</v>
@@ -11877,7 +11769,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.460578487700422</v>
+        <v>1.433743499611429</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.051861618401085</v>
@@ -11966,7 +11858,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.489333941129345</v>
+        <v>1.458151765616991</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.169773495398974</v>
@@ -12252,7 +12144,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.541055633437029</v>
+        <v>1.543030789449133</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.36776258292193</v>
@@ -12341,7 +12233,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.54211269336569</v>
+        <v>1.54560001384764</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.410182824913174</v>
@@ -12430,7 +12322,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.543631612318364</v>
+        <v>1.546596996829673</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.37424718661675</v>
@@ -12519,7 +12411,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.539753968952981</v>
+        <v>1.543938631356171</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.376608994628154</v>
@@ -12608,7 +12500,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.537527930294799</v>
+        <v>1.54348381197258</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.407994888969523</v>
@@ -12697,7 +12589,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.542870807066829</v>
+        <v>1.552560293927304</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.279458848649866</v>
@@ -12786,7 +12678,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.546840388405283</v>
+        <v>1.554782371586523</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.396709797529395</v>
@@ -12875,7 +12767,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.534639823740322</v>
+        <v>1.547416311801232</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.61510803778364</v>
@@ -12964,7 +12856,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.44574056821162</v>
+        <v>1.439579992177688</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.248024636709028</v>
@@ -13053,7 +12945,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.421246428324773</v>
+        <v>1.412828754729647</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.177157535206776</v>
@@ -13142,7 +13034,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.437625123958841</v>
+        <v>1.42527691653237</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.147070770455554</v>
@@ -13231,7 +13123,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.445268156863919</v>
+        <v>1.440431004858632</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.288497877220822</v>
@@ -13320,7 +13212,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.455480172036828</v>
+        <v>1.46052502641723</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.943053389733452</v>
@@ -13409,7 +13301,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.468407125703059</v>
+        <v>1.461811613937751</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.128826728065751</v>
@@ -13498,7 +13390,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.464402293672586</v>
+        <v>1.449682946319715</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.117731626409415</v>
@@ -13587,7 +13479,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.492551432122297</v>
+        <v>1.468358380456528</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.154060804495464</v>
@@ -13676,7 +13568,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.443970277916212</v>
+        <v>1.418127173283999</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.004215884943927</v>
@@ -13765,7 +13657,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.418776698120245</v>
+        <v>1.398861730772017</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.993694897492244</v>
@@ -13854,7 +13746,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.421019887523276</v>
+        <v>1.400925902692548</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.96457900935772</v>
@@ -13943,7 +13835,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.427026355632217</v>
+        <v>1.408512444528936</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.991978560735148</v>
@@ -14032,7 +13924,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.440329207175314</v>
+        <v>1.417403739223133</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.977527346309777</v>
@@ -14121,7 +14013,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.442493926749414</v>
+        <v>1.42008476699785</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.949561040910087</v>
@@ -14210,7 +14102,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.43038707980612</v>
+        <v>1.410794785469039</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.961307861028841</v>
@@ -14299,7 +14191,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.468304729679465</v>
+        <v>1.451246545610015</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.937727769003213</v>
@@ -14388,7 +14280,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.461023066965156</v>
+        <v>1.44589604022201</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.944491019990068</v>
@@ -14477,7 +14369,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.443147223711796</v>
+        <v>1.430428431139121</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.960968196269836</v>
@@ -14566,7 +14458,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.440801398821449</v>
+        <v>1.425523799546963</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.935021714606811</v>
@@ -14655,7 +14547,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.440153019818424</v>
+        <v>1.426660186797865</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.935722116149714</v>
@@ -14744,7 +14636,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.429137842569375</v>
+        <v>1.423540276967035</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.945391111488157</v>
@@ -14833,7 +14725,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.437690031157163</v>
+        <v>1.433918070591928</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.913542723935916</v>
@@ -14922,7 +14814,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.439183149147879</v>
+        <v>1.438418142916088</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.921207016761594</v>
@@ -15011,7 +14903,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.486302380087741</v>
+        <v>1.483059159153049</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.380472164728624</v>
@@ -15100,7 +14992,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.503218476757349</v>
+        <v>1.494572116860915</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.629101763816494</v>
@@ -15189,7 +15081,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.498350517500574</v>
+        <v>1.485504132288278</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.866161246571705</v>
@@ -15278,7 +15170,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.484084215672382</v>
+        <v>1.473744193891887</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.837483865582469</v>
@@ -15367,7 +15259,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.478248387802896</v>
+        <v>1.464312916513679</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.676366805857987</v>
@@ -15456,7 +15348,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.476469056105173</v>
+        <v>1.467290643916972</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.996041331750656</v>
@@ -15545,7 +15437,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.491827234537642</v>
+        <v>1.485253262316188</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.676000147378323</v>
@@ -15634,7 +15526,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.469212995682654</v>
+        <v>1.460667794366178</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.774712342051561</v>
@@ -15723,7 +15615,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.490436566370672</v>
+        <v>1.4698754145613</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.853257722592897</v>
@@ -15812,7 +15704,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.514135516216021</v>
+        <v>1.491801707433927</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.754175982783161</v>
@@ -15901,7 +15793,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.513491505831377</v>
+        <v>1.491377967803416</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.013845034043642</v>
@@ -15990,7 +15882,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.525449550499556</v>
+        <v>1.498915472033762</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.834074772516435</v>
@@ -16079,7 +15971,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.513230263838794</v>
+        <v>1.486377560336156</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.683216347117645</v>
@@ -16168,7 +16060,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.517094943915775</v>
+        <v>1.491519885352472</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.804772814739552</v>
@@ -16257,7 +16149,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.510004199061011</v>
+        <v>1.480975050966673</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.555379156021408</v>
@@ -16346,7 +16238,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.509198130751929</v>
+        <v>1.4850199909071</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.59965426396781</v>
@@ -16435,7 +16327,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.520489529223928</v>
+        <v>1.491582017154712</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.774727108314853</v>
@@ -16524,7 +16416,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.529761676392187</v>
+        <v>1.501892920614772</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.717168359957704</v>
@@ -16613,7 +16505,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.534087440087266</v>
+        <v>1.506218491902038</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.813343426423143</v>
@@ -16702,7 +16594,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.547931431183012</v>
+        <v>1.521106516143682</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.9584990283712</v>
@@ -16791,7 +16683,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.541946593184628</v>
+        <v>1.514633595745007</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.857922295309216</v>
@@ -16880,7 +16772,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.54641339644746</v>
+        <v>1.514908473340395</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.619832931554081</v>
@@ -16969,7 +16861,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.56150797772137</v>
+        <v>1.52624332184638</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.756006771705244</v>
@@ -17058,7 +16950,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.565729320443273</v>
+        <v>1.535303305641223</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.637574125295933</v>
@@ -17147,7 +17039,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.561382487606773</v>
+        <v>1.528686014660726</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.70789448988112</v>
@@ -17236,7 +17128,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.568327915231462</v>
+        <v>1.537707248354824</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.733979567468407</v>
@@ -17325,7 +17217,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.562521921480624</v>
+        <v>1.532263545567081</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.794757002526741</v>
@@ -17414,7 +17306,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.572794094665978</v>
+        <v>1.538492524869833</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.754810508594081</v>
@@ -17503,7 +17395,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.532825516686108</v>
+        <v>1.502474837693873</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.080174631903121</v>
@@ -17592,7 +17484,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.535370778088706</v>
+        <v>1.508579567998825</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.152951157338567</v>
@@ -17878,7 +17770,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.778307894536655</v>
+        <v>1.752299834545391</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.329044193851332</v>
@@ -17967,7 +17859,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.782252688557507</v>
+        <v>1.756015734043581</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.43887632565911</v>
@@ -18056,7 +17948,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.77846235693244</v>
+        <v>1.752551494906436</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.3464269815076</v>
@@ -18145,7 +18037,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.772579174253645</v>
+        <v>1.751968483122696</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.206365426098442</v>
@@ -18234,7 +18126,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.773421067135269</v>
+        <v>1.750508062527719</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.301840104376186</v>
@@ -18323,7 +18215,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.786939386963331</v>
+        <v>1.774233273953669</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.363257899129074</v>
@@ -18412,7 +18304,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.792122795884118</v>
+        <v>1.775864033267453</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.994177066483575</v>
@@ -18501,7 +18393,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.744468245735715</v>
+        <v>1.722795260101359</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.851837932799452</v>
@@ -18590,7 +18482,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.681198315597928</v>
+        <v>1.655090911742031</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.340953916205578</v>
@@ -18679,7 +18571,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.647059344405485</v>
+        <v>1.613511016970645</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.020193595620984</v>
@@ -18768,7 +18660,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.647850558338592</v>
+        <v>1.60727911495045</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.959672340699772</v>
@@ -18857,7 +18749,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.653542790807733</v>
+        <v>1.619298020215066</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.067829996217952</v>
@@ -18946,7 +18838,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.670637166337611</v>
+        <v>1.639815982296016</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.09670567953941</v>
@@ -19035,7 +18927,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.648347309069602</v>
+        <v>1.61359295801664</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.232180161688954</v>
@@ -19124,7 +19016,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.632657827428221</v>
+        <v>1.594025220671215</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.572923602691984</v>
@@ -19213,7 +19105,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.627068042448218</v>
+        <v>1.587545343469708</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.445966574451685</v>
@@ -19302,7 +19194,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.619256705302189</v>
+        <v>1.579711852381692</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.226714390222094</v>
@@ -19391,7 +19283,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.623056730486662</v>
+        <v>1.580607855809322</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.151464006860018</v>
@@ -19480,7 +19372,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.607038614014814</v>
+        <v>1.568393259320083</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.357150965872727</v>
@@ -19569,7 +19461,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.598083023521055</v>
+        <v>1.557239679725487</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.175639451849753</v>
@@ -19658,7 +19550,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.593537527360517</v>
+        <v>1.547680310610096</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.098468931929109</v>
@@ -19747,7 +19639,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.587258921100001</v>
+        <v>1.536365160323081</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.012368560365233</v>
@@ -19836,7 +19728,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584827315812856</v>
+        <v>1.532752503592764</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.271487354652221</v>
@@ -19925,7 +19817,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.592873056504905</v>
+        <v>1.536974684132265</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.02647511347754</v>
@@ -20014,7 +19906,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.595826018851891</v>
+        <v>1.539280486627125</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.439929429953947</v>
@@ -20103,7 +19995,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.581705781332206</v>
+        <v>1.526518607459482</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.49828086979291</v>
@@ -20192,7 +20084,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.581352185160844</v>
+        <v>1.523656529675961</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.121468228573058</v>
@@ -20281,7 +20173,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.565006011763752</v>
+        <v>1.510300436870317</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.195605354341689</v>
@@ -20370,7 +20262,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.56423433038701</v>
+        <v>1.510905484026767</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.474287720905277</v>
@@ -20459,7 +20351,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.569923484612302</v>
+        <v>1.509040077695088</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.091677461499992</v>
@@ -20548,7 +20440,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.572250640412331</v>
+        <v>1.513630261255592</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.47227243156449</v>
@@ -20637,7 +20529,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.578501407859094</v>
+        <v>1.523436375115986</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.149187997260777</v>
@@ -20726,7 +20618,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.573062571461277</v>
+        <v>1.520365039788229</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.983581030110311</v>
@@ -20815,7 +20707,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.586122548896489</v>
+        <v>1.531981245508319</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.365206515796513</v>
@@ -20904,7 +20796,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.58816862069384</v>
+        <v>1.537004994854088</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.279470230871681</v>
@@ -20993,7 +20885,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.591530161632216</v>
+        <v>1.538671357701203</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.230625158331148</v>
@@ -21082,7 +20974,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.590287471034745</v>
+        <v>1.536879475069342</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.181957138406275</v>
@@ -21171,7 +21063,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.599729058126485</v>
+        <v>1.547580489187756</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.144216676136814</v>
@@ -21260,7 +21152,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.591659700937929</v>
+        <v>1.533584140907479</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.749575744972142</v>
@@ -21349,7 +21241,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.589569649380508</v>
+        <v>1.52877227348996</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.313067509699773</v>
@@ -21438,7 +21330,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.60263386936173</v>
+        <v>1.539683158239856</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.182817351169014</v>
@@ -21527,7 +21419,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.603801306739461</v>
+        <v>1.542707191393704</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.206215845274576</v>
@@ -21616,7 +21508,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.611158455813453</v>
+        <v>1.548514356001023</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.389208774657297</v>
@@ -21705,7 +21597,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.59805858214963</v>
+        <v>1.537616123632725</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.009046740457246</v>
@@ -21794,7 +21686,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.612715991212747</v>
+        <v>1.551815507241613</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.120002654082082</v>
@@ -21883,7 +21775,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.595238806264676</v>
+        <v>1.539250405562687</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.194622436075959</v>
@@ -21972,7 +21864,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.586644062339621</v>
+        <v>1.532252265429423</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.858528341262237</v>
@@ -22061,7 +21953,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.586949285030228</v>
+        <v>1.525869747151161</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.151315089203844</v>
@@ -22150,7 +22042,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.585881593850672</v>
+        <v>1.523076728773475</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.202813593920099</v>
@@ -22239,7 +22131,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587859639436441</v>
+        <v>1.527003955759322</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.944717862364986</v>
@@ -22328,7 +22220,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.591560900026746</v>
+        <v>1.536202573506222</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.195890057907993</v>
@@ -22417,7 +22309,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.590311090921074</v>
+        <v>1.536832929065995</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.970540376217591</v>
@@ -22506,7 +22398,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.589099353560085</v>
+        <v>1.538095288256625</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.143320941451035</v>
@@ -22595,7 +22487,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.608261945862896</v>
+        <v>1.556337161371606</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.994009736383387</v>
@@ -22684,7 +22576,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.610043919175169</v>
+        <v>1.56768189688246</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.781912507965725</v>
@@ -22773,7 +22665,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.615214987454781</v>
+        <v>1.572290753465164</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.908249856342498</v>
@@ -22862,7 +22754,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.610981517541608</v>
+        <v>1.567433652935561</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.023714034830208</v>
@@ -22951,7 +22843,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.604742077773049</v>
+        <v>1.559335584763184</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.101819197456367</v>
@@ -23040,7 +22932,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.606743760583347</v>
+        <v>1.557573381008329</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.944773246520418</v>
@@ -23129,7 +23021,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.598106578556457</v>
+        <v>1.544039141007124</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.952945842308074</v>
@@ -23218,7 +23110,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.611228929504062</v>
+        <v>1.551428916459663</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.017847758221666</v>
@@ -23504,7 +23396,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.769784983315754</v>
+        <v>1.740767690007142</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.358247913104794</v>
@@ -23593,7 +23485,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.774149685108273</v>
+        <v>1.744886225934292</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.185652884474977</v>
@@ -23682,7 +23574,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.776239799834006</v>
+        <v>1.741341242780521</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.212302091404577</v>
@@ -23771,7 +23663,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.769431361158512</v>
+        <v>1.736331477917843</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.972290349864441</v>
@@ -23860,7 +23752,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.766250578937517</v>
+        <v>1.736389866689464</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.354035673578383</v>
@@ -23949,7 +23841,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.775409254048025</v>
+        <v>1.750700447255866</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.959750120238701</v>
@@ -24038,7 +23930,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.781382862963955</v>
+        <v>1.751120222072548</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.041759423866621</v>
@@ -24127,7 +24019,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.744186123185925</v>
+        <v>1.70967483439947</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.939009214907199</v>
@@ -24216,7 +24108,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.697196281469896</v>
+        <v>1.653832657956508</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.073390798978794</v>
@@ -24305,7 +24197,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.675613574042128</v>
+        <v>1.634080261359305</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.088892662308717</v>
@@ -24394,7 +24286,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.670466341111057</v>
+        <v>1.624511227940479</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.89385751697613</v>
@@ -24483,7 +24375,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.684516498080303</v>
+        <v>1.644591641297035</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.360213581602782</v>
@@ -24572,7 +24464,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.693906667923868</v>
+        <v>1.652532510092967</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.956712213041353</v>
@@ -24661,7 +24553,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.68369885579745</v>
+        <v>1.640670520867919</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.309170175128551</v>
@@ -24750,7 +24642,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.655354840455626</v>
+        <v>1.604430687524048</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.291090383237394</v>
@@ -24839,7 +24731,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.670714898544203</v>
+        <v>1.611673393850682</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.236098669049767</v>
@@ -24928,7 +24820,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.664342395443522</v>
+        <v>1.608204161840586</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.098517010775207</v>
@@ -25017,7 +24909,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.666498955032227</v>
+        <v>1.612625085820525</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.062013971775013</v>
@@ -25106,7 +24998,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.667110132106222</v>
+        <v>1.611635590275856</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.47017238153037</v>
@@ -25195,7 +25087,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.674618560272312</v>
+        <v>1.619088402611571</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.158603551672575</v>
@@ -25284,7 +25176,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.682899594089738</v>
+        <v>1.627415712813825</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.123321630854809</v>
@@ -25373,7 +25265,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.682443363017813</v>
+        <v>1.628830952935568</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.644143254435716</v>
@@ -25462,7 +25354,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.682401734315141</v>
+        <v>1.623314379932096</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.591760813688458</v>
@@ -25551,7 +25443,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.688233594161988</v>
+        <v>1.62674858001062</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.879643338003664</v>
@@ -25640,7 +25532,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.696906036317068</v>
+        <v>1.629652361201216</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.912937250934486</v>
@@ -25729,7 +25621,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.699397789332625</v>
+        <v>1.635522920396177</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.766614301573676</v>
@@ -25818,7 +25710,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.69449766087349</v>
+        <v>1.632534373919117</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.492385310988894</v>
@@ -25907,7 +25799,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.685745118859875</v>
+        <v>1.622411274226754</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.627652304438406</v>
@@ -25996,7 +25888,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.678683573896018</v>
+        <v>1.618272954098384</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.257305372657065</v>
@@ -26085,7 +25977,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.693442345445341</v>
+        <v>1.635137784964433</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.967092603516759</v>
@@ -26174,7 +26066,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.6934819439858</v>
+        <v>1.634959976923139</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.655987268561101</v>
@@ -26263,7 +26155,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.706880839749854</v>
+        <v>1.647137313662779</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.343102939642145</v>
@@ -26352,7 +26244,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.704038288476526</v>
+        <v>1.64484072843671</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.379169907494902</v>
@@ -26441,7 +26333,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.711866928351225</v>
+        <v>1.651890780450108</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.039780709771629</v>
@@ -26530,7 +26422,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.712772359483369</v>
+        <v>1.648346597635496</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.335191601364729</v>
@@ -26619,7 +26511,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.707903504118017</v>
+        <v>1.644698089601746</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.255052379947386</v>
@@ -26708,7 +26600,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.704315177925418</v>
+        <v>1.639997627782085</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.680904648808741</v>
@@ -26797,7 +26689,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.710667428993181</v>
+        <v>1.649063933602984</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.851969550027168</v>
@@ -26886,7 +26778,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.706389699303775</v>
+        <v>1.646466475216261</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.480695751635287</v>
@@ -26975,7 +26867,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.696077128446229</v>
+        <v>1.643692658986032</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.402934970984556</v>
@@ -27064,7 +26956,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.700474460314963</v>
+        <v>1.642631671700148</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.627324882763215</v>
@@ -27153,7 +27045,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.711385496608355</v>
+        <v>1.653678559337283</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.553812851657989</v>
@@ -27242,7 +27134,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.713789896372485</v>
+        <v>1.654096747778551</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.609395273309109</v>
@@ -27331,7 +27223,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.706014449472372</v>
+        <v>1.649859237468341</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.670379877412676</v>
@@ -27420,7 +27312,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.715665319795134</v>
+        <v>1.657485384516485</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.519007316377205</v>
@@ -27509,7 +27401,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.715983670096116</v>
+        <v>1.653481982476044</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.554289159554131</v>
@@ -27598,7 +27490,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.71462921721944</v>
+        <v>1.657464750164476</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.700109870669796</v>
@@ -27687,7 +27579,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.715363000433187</v>
+        <v>1.663924905449945</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.466614333340293</v>
@@ -27776,7 +27668,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.709682072047165</v>
+        <v>1.661032831387481</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.829835276881523</v>
@@ -27865,7 +27757,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.712001611408801</v>
+        <v>1.666209197453955</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.276556007386293</v>
@@ -27954,7 +27846,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.715976238161537</v>
+        <v>1.665608358766906</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.802146965721397</v>
@@ -28043,7 +27935,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.715148582106977</v>
+        <v>1.666711909177786</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.463286528686513</v>
@@ -28132,7 +28024,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.71728326320217</v>
+        <v>1.668342322165086</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.333563028946947</v>
@@ -28221,7 +28113,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.720370579402436</v>
+        <v>1.670634557442229</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.81761150085688</v>
@@ -28310,7 +28202,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.728480655396975</v>
+        <v>1.680841326031031</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.986105520505983</v>
@@ -28399,7 +28291,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.7359065748167</v>
+        <v>1.68509797348693</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.831679867100124</v>
@@ -28488,7 +28380,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.730471003193051</v>
+        <v>1.680663214662497</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.018957013496809</v>
@@ -28577,7 +28469,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.739195548370917</v>
+        <v>1.694607600734012</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.718208828591793</v>
@@ -28666,7 +28558,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.748747593031707</v>
+        <v>1.698177256969914</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.285437652015079</v>
@@ -28755,7 +28647,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.74433046736111</v>
+        <v>1.695999057679099</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.222644058549208</v>
@@ -28844,7 +28736,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.745536466239633</v>
+        <v>1.701437450683672</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.062994963472451</v>
@@ -29130,7 +29022,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.720985068236286</v>
+        <v>1.755243935491507</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.983193160491528</v>
@@ -29219,7 +29111,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.718131280331179</v>
+        <v>1.753789402305068</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.085838885977572</v>
@@ -29308,7 +29200,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.716204407219532</v>
+        <v>1.750551979886193</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.96303460797372</v>
@@ -29397,7 +29289,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.703472880027102</v>
+        <v>1.741782429334737</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.012644124894761</v>
@@ -29486,7 +29378,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.694355157400186</v>
+        <v>1.734075734134044</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.859755570935385</v>
@@ -29575,7 +29467,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.71014042691558</v>
+        <v>1.75459710958735</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.733485275532968</v>
@@ -29664,7 +29556,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.718372849357006</v>
+        <v>1.762099544170193</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.947497277222143</v>
@@ -29753,7 +29645,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.66063013125826</v>
+        <v>1.707057751393806</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.488705249285023</v>
@@ -29842,7 +29734,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.519524875227793</v>
+        <v>1.543438589118032</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.274123416450668</v>
@@ -29931,7 +29823,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.473555033027963</v>
+        <v>1.496106983267511</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.719709844758394</v>
@@ -30020,7 +29912,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.464667502035259</v>
+        <v>1.487315473329627</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.707266811906055</v>
@@ -30109,7 +30001,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.483661722392388</v>
+        <v>1.505192911206174</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.824229448990957</v>
@@ -30198,7 +30090,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.488395212417561</v>
+        <v>1.507473849753507</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.734039327544343</v>
@@ -30287,7 +30179,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.448450725391231</v>
+        <v>1.464790616481237</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.606772934409123</v>
@@ -30376,7 +30268,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.428441256137833</v>
+        <v>1.441001682440922</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.8318038003091</v>
@@ -30465,7 +30357,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.447658655341617</v>
+        <v>1.460856241282806</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.69207454414846</v>
@@ -30554,7 +30446,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.459063870301686</v>
+        <v>1.471982814779763</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.752900716295175</v>
@@ -30643,7 +30535,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.457762594700995</v>
+        <v>1.470980777432642</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.670935740127349</v>
@@ -30732,7 +30624,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.46396384585393</v>
+        <v>1.473508473875047</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.814389650740248</v>
@@ -30821,7 +30713,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.476092370865286</v>
+        <v>1.488938492949898</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.539532992613963</v>
@@ -30910,7 +30802,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.479527160872747</v>
+        <v>1.489908228446736</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.943240232323468</v>
@@ -30999,7 +30891,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.486383654198777</v>
+        <v>1.496762335923501</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.925587993120093</v>
@@ -31088,7 +30980,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.481730695087355</v>
+        <v>1.494520909655728</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.68741763693024</v>
@@ -31177,7 +31069,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.497817534893545</v>
+        <v>1.508242792944789</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.803391043437425</v>
@@ -31266,7 +31158,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.492873718075725</v>
+        <v>1.501745129440384</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.029632921066452</v>
@@ -31355,7 +31247,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.494246591596359</v>
+        <v>1.500545865456888</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.830881389641894</v>
@@ -31444,7 +31336,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.486888389456149</v>
+        <v>1.49765682739348</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.014984623811909</v>
@@ -31533,7 +31425,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.489055024462479</v>
+        <v>1.500433107034756</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.973274979028531</v>
@@ -31622,7 +31514,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.484953892479423</v>
+        <v>1.491546709109523</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.060273444014602</v>
@@ -31711,7 +31603,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.482626543694785</v>
+        <v>1.489575688865648</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.091038342126609</v>
@@ -31800,7 +31692,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.481836375664994</v>
+        <v>1.486964051120523</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.072356546995366</v>
@@ -31889,7 +31781,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.467369936773855</v>
+        <v>1.472834686509176</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.108065506700478</v>
@@ -31978,7 +31870,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.467338518094854</v>
+        <v>1.474753656463857</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.761042978146847</v>
@@ -32067,7 +31959,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.468239615375857</v>
+        <v>1.473785754312719</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.072174884817993</v>
@@ -32156,7 +32048,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.462541262564995</v>
+        <v>1.46784407102415</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.146489098314361</v>
@@ -32245,7 +32137,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.461737711113475</v>
+        <v>1.462735828529371</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.95896417604891</v>
@@ -32334,7 +32226,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.45754948854352</v>
+        <v>1.458984287088441</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.018752069639331</v>
@@ -32423,7 +32315,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.458976607454133</v>
+        <v>1.460698929097973</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.548877175622859</v>
@@ -32512,7 +32404,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.457197245536033</v>
+        <v>1.457195062793178</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.915677054017934</v>
@@ -32601,7 +32493,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.455856873719099</v>
+        <v>1.452458728354717</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.904830825835453</v>
@@ -32690,7 +32582,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.467564191749515</v>
+        <v>1.460324513976218</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.740755055877436</v>
@@ -32779,7 +32671,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.479104018681677</v>
+        <v>1.471174247799608</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.843305309890792</v>
@@ -32868,7 +32760,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.48811829375053</v>
+        <v>1.482019780462765</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.674331793037386</v>
@@ -32957,7 +32849,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.487488186642118</v>
+        <v>1.484759957026472</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.78992248306382</v>
@@ -33046,7 +32938,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.498185410110548</v>
+        <v>1.495638931760535</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.938090913113891</v>
@@ -33135,7 +33027,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.498743630949864</v>
+        <v>1.496631800775549</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.029606311154462</v>
@@ -33224,7 +33116,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.509438082829185</v>
+        <v>1.509857186841907</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.634367340687877</v>
@@ -33313,7 +33205,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.517496846520335</v>
+        <v>1.510634354851749</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.879076754592532</v>
@@ -33402,7 +33294,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.521353468703613</v>
+        <v>1.517481210626352</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.928931584607606</v>
@@ -33491,7 +33383,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.517579257748773</v>
+        <v>1.511788649802954</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.004829410668474</v>
@@ -33580,7 +33472,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.531634356476171</v>
+        <v>1.527610268831304</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.632766599219186</v>
@@ -33669,7 +33561,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.544310750266366</v>
+        <v>1.542593375669149</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.80707153167215</v>
@@ -33758,7 +33650,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.554590277059258</v>
+        <v>1.553361510699692</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.062539578427458</v>
@@ -33847,7 +33739,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.553573008309826</v>
+        <v>1.550740064216272</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.223278298050923</v>
@@ -33936,7 +33828,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.557013404759175</v>
+        <v>1.554538779633634</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.314432065701495</v>
@@ -34025,7 +33917,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.541110727946972</v>
+        <v>1.543808261458373</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.207789240132231</v>
@@ -34114,7 +34006,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.537408074806851</v>
+        <v>1.540530267583134</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.972490378461274</v>
@@ -34203,7 +34095,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.519853881292215</v>
+        <v>1.527616228389709</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.095961470742759</v>
@@ -34292,7 +34184,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.513958529687449</v>
+        <v>1.519040666410477</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.040053791343255</v>
@@ -34381,7 +34273,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.514032065378372</v>
+        <v>1.519694058392044</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.754136978716296</v>
@@ -34470,7 +34362,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.50828033982721</v>
+        <v>1.514303400113019</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.877431380672185</v>
@@ -34756,7 +34648,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.678648722622397</v>
+        <v>1.678710267441179</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.054548653901179</v>
@@ -34845,7 +34737,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.678981432732541</v>
+        <v>1.680196186563713</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.244898985733313</v>
@@ -34934,7 +34826,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.677049447713466</v>
+        <v>1.674745841007136</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.033383851867055</v>
@@ -35023,7 +34915,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.664457973077347</v>
+        <v>1.66936211629071</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.821393300768549</v>
@@ -35112,7 +35004,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.668937692879293</v>
+        <v>1.672745807994714</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.969255256804897</v>
@@ -35201,7 +35093,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.667590449745212</v>
+        <v>1.669470286332879</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.262410221837819</v>
@@ -35290,7 +35182,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.680526119109264</v>
+        <v>1.681562175062688</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.805969956123633</v>
@@ -35379,7 +35271,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.643996882050112</v>
+        <v>1.639854074949733</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.603870827250118</v>
@@ -35468,7 +35360,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.571591088467442</v>
+        <v>1.554138074311653</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.656658087311493</v>
@@ -35557,7 +35449,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.575517616372988</v>
+        <v>1.549844941593575</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.376169962527888</v>
@@ -35646,7 +35538,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.589022101483482</v>
+        <v>1.559884318797217</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.359652137931364</v>
@@ -35735,7 +35627,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.610868216269094</v>
+        <v>1.585014668387029</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.629952139125532</v>
@@ -35824,7 +35716,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.640039139118636</v>
+        <v>1.614656615902607</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.663813944123411</v>
@@ -35913,7 +35805,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.632466674643927</v>
+        <v>1.608248689334451</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.709898154726992</v>
@@ -36002,7 +35894,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.608796771192875</v>
+        <v>1.583446439736684</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.646782241815502</v>
@@ -36091,7 +35983,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.630599720549115</v>
+        <v>1.599071815074047</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.665736744589664</v>
@@ -36180,7 +36072,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.604727474559954</v>
+        <v>1.573109403937274</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.542636547328478</v>
@@ -36269,7 +36161,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.616763490012312</v>
+        <v>1.582744816968156</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.684249619022701</v>
@@ -36358,7 +36250,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.602193912125665</v>
+        <v>1.576269563566274</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.588824858086888</v>
@@ -36447,7 +36339,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.613260911123067</v>
+        <v>1.584323120741179</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.388771096481552</v>
@@ -36536,7 +36428,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.65477924806258</v>
+        <v>1.625747138802099</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.567783816639568</v>
@@ -36625,7 +36517,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.655005907392699</v>
+        <v>1.623087991739151</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.712064887286898</v>
@@ -36714,7 +36606,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.641166705447807</v>
+        <v>1.614532411954553</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.692293547989834</v>
@@ -36803,7 +36695,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.664093787370196</v>
+        <v>1.63657115427417</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.754914328107312</v>
@@ -36892,7 +36784,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.677758605505916</v>
+        <v>1.650280296228194</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.612107213880134</v>
@@ -36981,7 +36873,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.660428309587057</v>
+        <v>1.633724272102508</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.769192176002708</v>
@@ -37070,7 +36962,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.659936239374109</v>
+        <v>1.633487087503205</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.805578080446084</v>
@@ -37159,7 +37051,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.639597326660482</v>
+        <v>1.615569182721444</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.634714469875576</v>
@@ -37248,7 +37140,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.64785248362215</v>
+        <v>1.621370261882428</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.678084113700973</v>
@@ -37337,7 +37229,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.677317835799484</v>
+        <v>1.652923013302751</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.671036892236424</v>
@@ -37426,7 +37318,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.667425508297209</v>
+        <v>1.648138493301241</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.834566483007998</v>
@@ -37515,7 +37407,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.700011484476585</v>
+        <v>1.679645677371618</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.668758452230755</v>
@@ -37604,7 +37496,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.678024502214007</v>
+        <v>1.662519001372845</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.739997736863838</v>
@@ -37693,7 +37585,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.694907318595252</v>
+        <v>1.67004286519091</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.972009307711874</v>
@@ -37782,7 +37674,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.679823462629918</v>
+        <v>1.659741539839271</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.885280073534041</v>
@@ -37871,7 +37763,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.679745842759175</v>
+        <v>1.656595124607664</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.062927851949087</v>
@@ -37960,7 +37852,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.676981457750362</v>
+        <v>1.658671596745054</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.075400712896008</v>
@@ -38049,7 +37941,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.688340101145229</v>
+        <v>1.670962135137962</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.22106076510398</v>
@@ -38138,7 +38030,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.658740756236493</v>
+        <v>1.644723900649481</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.787716434663197</v>
@@ -38227,7 +38119,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.661888318897834</v>
+        <v>1.646124393632241</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.991267975479567</v>
@@ -38316,7 +38208,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.692063636772546</v>
+        <v>1.671148929265893</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.654051030003583</v>
@@ -38405,7 +38297,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.691217948113374</v>
+        <v>1.669690101372385</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.731504872877202</v>
@@ -38494,7 +38386,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.71602473539335</v>
+        <v>1.68750428795898</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.185817941772451</v>
@@ -38583,7 +38475,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.690689405618938</v>
+        <v>1.666441515257382</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.709866008485758</v>
@@ -38672,7 +38564,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.703873099724937</v>
+        <v>1.672913572717359</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.129831374054979</v>
@@ -38761,7 +38653,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.689862833020867</v>
+        <v>1.666284317679184</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.984345940680249</v>
@@ -38850,7 +38742,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.673046180735551</v>
+        <v>1.650013747496167</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.047784503798898</v>
@@ -38939,7 +38831,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.701422892933756</v>
+        <v>1.6703675619112</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.89012507638772</v>
@@ -39028,7 +38920,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.704207958656502</v>
+        <v>1.676570464384547</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.002252144773918</v>
@@ -39117,7 +39009,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.707026813799805</v>
+        <v>1.679874862400075</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.944930948472555</v>
@@ -39206,7 +39098,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.712420594521912</v>
+        <v>1.685658856390198</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.907654639823925</v>
@@ -39295,7 +39187,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.712620113249436</v>
+        <v>1.686750772836352</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.779078381618298</v>
@@ -39384,7 +39276,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.714750432335111</v>
+        <v>1.679886596562711</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.851269438586873</v>
@@ -39473,7 +39365,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.74792284667207</v>
+        <v>1.710693396721869</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.947979453882996</v>
@@ -39562,7 +39454,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.748702431354134</v>
+        <v>1.71465659512919</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.813683519100556</v>
@@ -39651,7 +39543,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.747086192484981</v>
+        <v>1.71175194343213</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.940982943017916</v>
@@ -39740,7 +39632,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.74018930812986</v>
+        <v>1.708509707353744</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.887474617734668</v>
@@ -39829,7 +39721,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.744775462726858</v>
+        <v>1.714315889677437</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.079719334748104</v>
@@ -39918,7 +39810,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.759445009969838</v>
+        <v>1.72906453171154</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.008795899308853</v>
@@ -40007,7 +39899,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.75787906625518</v>
+        <v>1.725130416449159</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.780345561473531</v>
@@ -40096,7 +39988,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.775573232681296</v>
+        <v>1.731466987683864</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.102555298356037</v>
